--- a/BackTest/2019-10-29 BackTest RNT.xlsx
+++ b/BackTest/2019-10-29 BackTest RNT.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -20926,14 +20926,20 @@
         <v>14.39000000000001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -20968,7 +20974,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +21006,20 @@
         <v>14.35500000000001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21038,7 +21054,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21073,7 +21093,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21108,7 +21132,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21143,7 +21171,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21178,7 +21210,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +21249,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21248,7 +21288,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21283,7 +21327,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21318,7 +21366,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21353,7 +21405,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21388,7 +21444,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21423,7 +21483,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21458,7 +21522,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21493,7 +21561,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21528,7 +21600,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21563,7 +21639,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21598,7 +21678,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21633,7 +21717,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -21668,7 +21756,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -21703,7 +21795,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -21738,7 +21834,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +21873,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -21808,7 +21912,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -21843,7 +21951,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -21878,7 +21990,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -21913,7 +22029,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -21948,7 +22068,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -21983,7 +22107,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22018,7 +22146,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22053,7 +22185,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22088,7 +22224,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22123,7 +22263,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22158,7 +22302,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22193,7 +22341,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22228,7 +22380,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22263,7 +22419,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22298,7 +22458,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22333,7 +22497,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22368,7 +22536,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22403,7 +22575,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22438,7 +22614,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22473,7 +22653,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22508,7 +22692,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22543,7 +22731,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22578,7 +22770,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22613,7 +22809,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +22848,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -22683,7 +22887,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -22718,7 +22926,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -22753,7 +22965,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -22788,7 +23004,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -22823,7 +23043,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -22858,7 +23082,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -22893,7 +23121,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +23160,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -22963,7 +23199,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -22998,7 +23238,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23033,7 +23277,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23068,7 +23316,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23103,7 +23355,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23138,7 +23394,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23173,7 +23433,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23208,7 +23472,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23243,7 +23511,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23278,7 +23550,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +23589,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23348,7 +23628,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23383,7 +23667,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +23706,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23453,7 +23745,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23488,7 +23784,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23523,7 +23823,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23558,7 +23862,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23593,7 +23901,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23628,7 +23940,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -23663,7 +23979,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23698,7 +24018,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -23726,14 +24050,20 @@
         <v>13.87500000000001</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -23761,14 +24091,20 @@
         <v>13.85000000000001</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>13.6</v>
+      </c>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -23796,14 +24132,20 @@
         <v>13.84000000000001</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -23838,7 +24180,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -23873,7 +24219,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -23908,7 +24258,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -23943,7 +24297,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -23978,7 +24336,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +24375,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24048,7 +24414,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24453,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24118,7 +24492,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24153,7 +24531,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24188,7 +24570,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24223,7 +24609,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +24648,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24293,7 +24687,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +24726,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +24765,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +24804,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +24843,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +24882,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24503,7 +24921,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +24960,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +24999,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24608,7 +25038,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +25077,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +25116,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24713,7 +25155,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24741,18 +25187,18 @@
         <v>13.81500000000001</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K696" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24780,20 +25226,16 @@
         <v>13.79500000000001</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K697" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M697" t="n">
@@ -24823,20 +25265,16 @@
         <v>13.76500000000001</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K698" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M698" t="n">
@@ -24866,17 +25304,13 @@
         <v>13.72000000000001</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K699" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24909,17 +25343,13 @@
         <v>13.69000000000001</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K700" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24952,17 +25382,13 @@
         <v>13.67000000000001</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K701" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24995,17 +25421,13 @@
         <v>13.65000000000001</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K702" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25038,17 +25460,13 @@
         <v>13.63500000000001</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K703" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25081,17 +25499,13 @@
         <v>13.62000000000001</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K704" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25124,17 +25538,13 @@
         <v>13.61000000000001</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K705" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25167,17 +25577,13 @@
         <v>13.60500000000001</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K706" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25210,17 +25616,13 @@
         <v>13.59000000000001</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K707" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25253,17 +25655,13 @@
         <v>13.57500000000001</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K708" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25296,17 +25694,13 @@
         <v>13.56000000000001</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K709" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,17 +25733,13 @@
         <v>13.55500000000001</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K710" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25382,17 +25772,13 @@
         <v>13.54500000000001</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K711" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25425,17 +25811,13 @@
         <v>13.54500000000001</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K712" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25468,17 +25850,13 @@
         <v>13.55000000000001</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K713" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25511,17 +25889,13 @@
         <v>13.55500000000002</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K714" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25554,17 +25928,13 @@
         <v>13.55500000000002</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K715" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25597,17 +25967,13 @@
         <v>13.55500000000002</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K716" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25640,17 +26006,13 @@
         <v>13.54500000000002</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K717" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25683,17 +26045,13 @@
         <v>13.54000000000002</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K718" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25726,17 +26084,13 @@
         <v>13.54500000000002</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K719" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25769,17 +26123,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K720" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25812,17 +26162,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K721" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25855,17 +26201,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K722" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25898,17 +26240,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K723" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25941,17 +26279,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K724" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25984,17 +26318,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K725" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26027,17 +26357,13 @@
         <v>13.52500000000001</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K726" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26070,17 +26396,13 @@
         <v>13.52500000000001</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K727" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26113,17 +26435,13 @@
         <v>13.52000000000001</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K728" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26156,17 +26474,13 @@
         <v>13.51500000000001</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K729" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26199,17 +26513,13 @@
         <v>13.50000000000001</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K730" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26242,17 +26552,13 @@
         <v>13.49000000000001</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K731" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26285,17 +26591,13 @@
         <v>13.47500000000001</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K732" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26328,17 +26630,13 @@
         <v>13.46500000000001</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K733" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26371,17 +26669,13 @@
         <v>13.45500000000001</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K734" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26414,17 +26708,13 @@
         <v>13.45500000000001</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K735" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26457,17 +26747,13 @@
         <v>13.45500000000001</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K736" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26500,17 +26786,13 @@
         <v>13.46000000000001</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K737" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26543,17 +26825,13 @@
         <v>13.47500000000001</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K738" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26586,17 +26864,13 @@
         <v>13.47500000000001</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K739" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26629,17 +26903,13 @@
         <v>13.49000000000001</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K740" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26672,17 +26942,13 @@
         <v>13.49500000000001</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K741" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26715,17 +26981,13 @@
         <v>13.50000000000001</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K742" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26758,17 +27020,13 @@
         <v>13.50000000000001</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K743" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26801,17 +27059,13 @@
         <v>13.50500000000001</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K744" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26844,17 +27098,13 @@
         <v>13.49500000000001</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K745" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26887,17 +27137,13 @@
         <v>13.49500000000001</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K746" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26930,17 +27176,13 @@
         <v>13.50000000000001</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K747" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26973,17 +27215,13 @@
         <v>13.50500000000001</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K748" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27016,17 +27254,13 @@
         <v>13.50500000000001</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K749" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27059,17 +27293,13 @@
         <v>13.51000000000001</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K750" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27102,17 +27332,13 @@
         <v>13.51500000000001</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K751" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27145,17 +27371,13 @@
         <v>13.52500000000001</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K752" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27188,17 +27410,13 @@
         <v>13.53000000000001</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K753" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27231,17 +27449,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K754" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27274,17 +27488,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K755" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27317,17 +27527,13 @@
         <v>13.54000000000002</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K756" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27360,17 +27566,13 @@
         <v>13.54000000000002</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K757" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27403,17 +27605,13 @@
         <v>13.53000000000002</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K758" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27446,17 +27644,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K759" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27489,17 +27683,13 @@
         <v>13.53500000000001</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
       </c>
-      <c r="J760" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K760" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27532,17 +27722,13 @@
         <v>13.54000000000001</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
       </c>
-      <c r="J761" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K761" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27575,17 +27761,13 @@
         <v>13.54000000000001</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
       </c>
-      <c r="J762" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K762" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27618,17 +27800,13 @@
         <v>13.54500000000001</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
       </c>
-      <c r="J763" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K763" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27661,17 +27839,13 @@
         <v>13.54000000000001</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
       </c>
-      <c r="J764" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K764" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27704,17 +27878,13 @@
         <v>13.54500000000001</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
         <v>0</v>
       </c>
-      <c r="J765" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K765" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27747,17 +27917,13 @@
         <v>13.55500000000001</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="n">
         <v>0</v>
       </c>
-      <c r="J766" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K766" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27790,17 +27956,13 @@
         <v>13.55500000000001</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767" t="n">
         <v>0</v>
       </c>
-      <c r="J767" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K767" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27833,17 +27995,13 @@
         <v>13.56500000000001</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="n">
         <v>0</v>
       </c>
-      <c r="J768" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K768" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27876,17 +28034,13 @@
         <v>13.58500000000001</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769" t="n">
         <v>0</v>
       </c>
-      <c r="J769" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K769" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27919,17 +28073,13 @@
         <v>13.60500000000001</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="n">
         <v>0</v>
       </c>
-      <c r="J770" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K770" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27962,17 +28112,13 @@
         <v>13.63000000000001</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>0</v>
       </c>
-      <c r="J771" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K771" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28005,17 +28151,13 @@
         <v>13.65500000000002</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
         <v>0</v>
       </c>
-      <c r="J772" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K772" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28054,9 +28196,7 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28089,17 +28229,13 @@
         <v>13.69500000000001</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K774" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28132,17 +28268,13 @@
         <v>13.71500000000001</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K775" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28175,17 +28307,13 @@
         <v>13.73000000000001</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K776" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28224,9 +28352,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28265,9 +28391,7 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28306,9 +28430,7 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28347,9 +28469,7 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28388,9 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28429,9 +28547,7 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28470,9 +28586,7 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28511,9 +28625,7 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28546,17 +28658,13 @@
         <v>13.835</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K785" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28589,17 +28697,13 @@
         <v>13.84000000000001</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K786" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28632,17 +28736,13 @@
         <v>13.85</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
       </c>
-      <c r="J787" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K787" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28675,17 +28775,13 @@
         <v>13.85500000000001</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K788" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28718,17 +28814,13 @@
         <v>13.85</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K789" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28761,17 +28853,13 @@
         <v>13.845</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K790" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28804,17 +28892,13 @@
         <v>13.84000000000001</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K791" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28847,17 +28931,13 @@
         <v>13.83500000000001</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K792" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28890,17 +28970,13 @@
         <v>13.83500000000001</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
       </c>
-      <c r="J793" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K793" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28933,17 +29009,13 @@
         <v>13.83000000000001</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0</v>
       </c>
-      <c r="J794" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K794" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-29 BackTest RNT.xlsx
+++ b/BackTest/2019-10-29 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1744839.892494706</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1972544.634196849</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>13.8</v>
@@ -523,7 +523,7 @@
         <v>1972544.634196849</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>13.9</v>
@@ -562,7 +562,7 @@
         <v>2026509.029096849</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>13.9</v>
@@ -601,7 +601,7 @@
         <v>1980331.504796849</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.1</v>
@@ -640,7 +640,7 @@
         <v>1865173.551996849</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14</v>
@@ -679,7 +679,7 @@
         <v>2020108.683996849</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>13.8</v>
@@ -718,7 +718,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>14.2</v>
@@ -757,7 +757,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>14.3</v>
@@ -796,7 +796,7 @@
         <v>2630933.108679827</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>14.3</v>
@@ -835,7 +835,7 @@
         <v>2782860.669279827</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14.1</v>
@@ -874,7 +874,7 @@
         <v>3047987.696879827</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>14.2</v>
@@ -913,7 +913,7 @@
         <v>4204620.556579827</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>14.3</v>
@@ -1470,7 +1470,7 @@
         <v>7400159.827248173</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
         <v>6512369.51865507</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
         <v>5514477.661608011</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3209,18 +3209,16 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3246,15 +3244,11 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +3281,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,15 +3310,11 @@
         <v>11630462.37413949</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3347,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3380,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3435,11 +3413,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3446,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3479,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3542,15 +3508,11 @@
         <v>12816795.5124281</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3579,15 +3541,11 @@
         <v>12784467.83046446</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3616,15 +3574,11 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3653,15 +3607,11 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3690,15 +3640,11 @@
         <v>12878315.09906446</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3677,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3710,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3743,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3776,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,15 +3805,11 @@
         <v>10741802.27451242</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3912,15 +3838,11 @@
         <v>10164527.07621242</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3949,15 +3871,11 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3908,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4023,15 +3937,11 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4060,15 +3970,11 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,15 +4003,11 @@
         <v>9874744.315655844</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4134,15 +4036,11 @@
         <v>10142681.96960794</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4171,15 +4069,11 @@
         <v>10142681.96960794</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4208,15 +4102,11 @@
         <v>11469848.85820794</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4245,15 +4135,11 @@
         <v>11114391.53190794</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4282,15 +4168,11 @@
         <v>10717330.77322699</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4319,15 +4201,11 @@
         <v>10717330.77322699</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4356,15 +4234,11 @@
         <v>10280735.68892699</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4393,15 +4267,11 @@
         <v>10331614.82332699</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4430,15 +4300,11 @@
         <v>9425533.512126986</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4467,15 +4333,11 @@
         <v>9425533.512126986</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4504,15 +4366,11 @@
         <v>9683838.842926987</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4541,15 +4399,11 @@
         <v>9551049.306826986</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4578,15 +4432,11 @@
         <v>9551049.306826986</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4615,15 +4465,11 @@
         <v>9610678.492626986</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4652,15 +4498,11 @@
         <v>9470618.985326985</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4689,15 +4531,11 @@
         <v>9470618.985326985</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4726,15 +4564,11 @@
         <v>9554090.026126985</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4601,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4634,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4667,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4700,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4911,15 +4729,11 @@
         <v>9957599.212126985</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4766,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4799,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5022,15 +4828,11 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5059,15 +4861,11 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +4898,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5133,15 +4927,11 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4964,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +4997,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5030,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5063,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +5096,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5129,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5162,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5195,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5228,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5261,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5294,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5327,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5360,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5393,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5426,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5725,15 +5455,11 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5762,15 +5488,11 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5799,15 +5521,11 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5836,15 +5554,11 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5873,16 +5587,14 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -5908,7 +5620,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5941,7 +5653,7 @@
         <v>11196531.50000272</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5974,7 +5686,7 @@
         <v>10884946.17490272</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6007,7 +5719,7 @@
         <v>11023393.43020272</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6040,7 +5752,7 @@
         <v>11058490.98235329</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6073,7 +5785,7 @@
         <v>10522660.3853533</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6106,7 +5818,7 @@
         <v>10578007.20345329</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6139,7 +5851,7 @@
         <v>10226206.87485329</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6172,7 +5884,7 @@
         <v>10353084.54485329</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6205,7 +5917,7 @@
         <v>10257556.61105329</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6238,7 +5950,7 @@
         <v>10201647.08605329</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6271,7 +5983,7 @@
         <v>9960892.626853293</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6304,7 +6016,7 @@
         <v>9104287.681553293</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6337,7 +6049,7 @@
         <v>9104287.681553293</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6370,7 +6082,7 @@
         <v>9793192.429853292</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6403,7 +6115,7 @@
         <v>9674868.851753293</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6436,7 +6148,7 @@
         <v>9788406.603753293</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6469,7 +6181,7 @@
         <v>9985350.543153293</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6502,7 +6214,7 @@
         <v>9985350.543153293</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6535,7 +6247,7 @@
         <v>10337454.82851704</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6568,7 +6280,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6601,7 +6313,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6634,7 +6346,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6667,7 +6379,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6700,7 +6412,7 @@
         <v>10443957.79761703</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6733,7 +6445,7 @@
         <v>10443957.79761703</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6766,7 +6478,7 @@
         <v>10800695.95491703</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6799,7 +6511,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6832,7 +6544,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6865,7 +6577,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6898,7 +6610,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6931,7 +6643,7 @@
         <v>10784352.60141703</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6964,7 +6676,7 @@
         <v>10784352.60141703</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6997,7 +6709,7 @@
         <v>10889274.61131703</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7030,7 +6742,7 @@
         <v>10889274.61131703</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7063,7 +6775,7 @@
         <v>10889193.15761703</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7096,7 +6808,7 @@
         <v>10918652.6057775</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7162,7 +6874,7 @@
         <v>11269602.51911703</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7195,7 +6907,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7228,7 +6940,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7261,7 +6973,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7294,7 +7006,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7327,7 +7039,7 @@
         <v>11638586.82621703</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7360,7 +7072,7 @@
         <v>12229002.52001704</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7393,7 +7105,7 @@
         <v>11916259.00441704</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7426,7 +7138,7 @@
         <v>11595461.21971704</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7459,7 +7171,7 @@
         <v>11533249.94331704</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7492,7 +7204,7 @@
         <v>11533279.94331704</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7525,7 +7237,7 @@
         <v>11095567.07101703</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7558,7 +7270,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7591,7 +7303,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7624,7 +7336,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7657,7 +7369,7 @@
         <v>12076116.83971703</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7690,7 +7402,7 @@
         <v>11712534.98491703</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7723,7 +7435,7 @@
         <v>11265741.32041703</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7756,7 +7468,7 @@
         <v>11354676.78121703</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7789,7 +7501,7 @@
         <v>11368197.20121703</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7822,7 +7534,7 @@
         <v>11231484.67851703</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7855,7 +7567,7 @@
         <v>11028349.18181703</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7888,7 +7600,7 @@
         <v>11028349.18181703</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7921,7 +7633,7 @@
         <v>10947354.58791703</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7954,7 +7666,7 @@
         <v>11132427.94971703</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7987,7 +7699,7 @@
         <v>11130872.80581703</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8020,7 +7732,7 @@
         <v>11137220.27721703</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8053,7 +7765,7 @@
         <v>11103066.31721703</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8086,7 +7798,7 @@
         <v>11103088.31721703</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8119,7 +7831,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8152,7 +7864,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8185,7 +7897,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8218,7 +7930,7 @@
         <v>11137763.48151703</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8251,7 +7963,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8284,7 +7996,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8317,7 +8029,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8350,7 +8062,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8383,7 +8095,7 @@
         <v>10889834.69331703</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8416,7 +8128,7 @@
         <v>10640566.36091703</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8482,7 +8194,7 @@
         <v>10357245.25689582</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8515,7 +8227,7 @@
         <v>10488021.56467461</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8548,7 +8260,7 @@
         <v>10488021.56467461</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8581,7 +8293,7 @@
         <v>10167789.16797461</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8614,7 +8326,7 @@
         <v>10167789.16797461</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8647,7 +8359,7 @@
         <v>10132654.58827461</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8680,7 +8392,7 @@
         <v>10132654.58827461</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8713,7 +8425,7 @@
         <v>9904062.249474607</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8746,7 +8458,7 @@
         <v>9904062.249474607</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8779,7 +8491,7 @@
         <v>10238491.83997461</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8812,7 +8524,7 @@
         <v>10126092.41497461</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8845,7 +8557,7 @@
         <v>10126092.41497461</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8878,7 +8590,7 @@
         <v>10355990.11827461</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8911,7 +8623,7 @@
         <v>10495846.68407461</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8944,7 +8656,7 @@
         <v>10475355.08717461</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8977,7 +8689,7 @@
         <v>10475355.08717461</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9010,7 +8722,7 @@
         <v>10475365.08717461</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9043,7 +8755,7 @@
         <v>10106123.41287461</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9076,7 +8788,7 @@
         <v>10106123.41287461</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9109,7 +8821,7 @@
         <v>9692261.498974608</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9142,7 +8854,7 @@
         <v>9962707.416074608</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9175,7 +8887,7 @@
         <v>9821299.612574607</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9208,7 +8920,7 @@
         <v>9821299.612574607</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9274,7 +8986,7 @@
         <v>10003907.91707461</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9307,7 +9019,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9340,7 +9052,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9373,7 +9085,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9406,7 +9118,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9736,7 +9448,7 @@
         <v>9978907.789437186</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -12409,7 +12121,7 @@
         <v>7236519.341067189</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -15115,7 +14827,7 @@
         <v>6651941.268245333</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15379,7 +15091,7 @@
         <v>6636931.521545333</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15478,7 +15190,7 @@
         <v>6692980.791545333</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15511,7 +15223,7 @@
         <v>6692990.791545333</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15643,7 +15355,7 @@
         <v>6679287.899445334</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15775,7 +15487,7 @@
         <v>6624022.731645334</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17392,7 +17104,7 @@
         <v>6681753.533634223</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17425,7 +17137,7 @@
         <v>6681723.533634223</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17458,7 +17170,7 @@
         <v>6681733.533634223</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17887,7 +17599,7 @@
         <v>7412925.26258747</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18019,7 +17731,7 @@
         <v>8751647.814519115</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18052,7 +17764,7 @@
         <v>9928072.625319116</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18085,7 +17797,7 @@
         <v>9752123.352519115</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18118,7 +17830,7 @@
         <v>10160075.81961912</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18151,7 +17863,7 @@
         <v>10695825.26632609</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18184,7 +17896,7 @@
         <v>10431649.68902609</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18217,7 +17929,7 @@
         <v>10093896.11372609</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18250,7 +17962,7 @@
         <v>10425412.55812609</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18283,7 +17995,7 @@
         <v>10425412.55812609</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18316,7 +18028,7 @@
         <v>9733455.47182609</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18349,7 +18061,7 @@
         <v>9733455.47182609</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -27952,14 +27664,10 @@
         <v>7206521.025396161</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J817" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
@@ -27992,14 +27700,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28031,14 +27733,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28070,14 +27766,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28109,14 +27799,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28148,14 +27832,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28187,14 +27865,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28226,14 +27898,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28265,14 +27931,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28304,14 +27964,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28343,14 +27997,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28382,14 +28030,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28421,14 +28063,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28460,14 +28096,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28499,14 +28129,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28538,14 +28162,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28577,14 +28195,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28616,14 +28228,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28655,14 +28261,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28694,14 +28294,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28733,14 +28327,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28772,14 +28360,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28811,14 +28393,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28850,14 +28426,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28889,14 +28459,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28928,14 +28492,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28967,14 +28525,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29006,14 +28558,8 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29045,14 +28591,8 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29084,14 +28624,8 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29123,14 +28657,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29162,14 +28690,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29201,14 +28723,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29240,14 +28756,8 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29279,14 +28789,8 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29318,14 +28822,8 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29357,14 +28855,8 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29396,14 +28888,8 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29435,14 +28921,8 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29474,14 +28954,8 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29513,14 +28987,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29552,14 +29020,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29591,14 +29053,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29630,14 +29086,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29669,14 +29119,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29708,14 +29152,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29747,20 +29185,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
       <c r="M863" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest RNT.xlsx
+++ b/BackTest/2019-10-29 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,11 +640,9 @@
         <v>1865173.551996849</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +677,9 @@
         <v>2020108.683996849</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +714,9 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +751,9 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +788,9 @@
         <v>2630933.108679827</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +825,9 @@
         <v>2782860.669279827</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +862,9 @@
         <v>3047987.696879827</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +899,9 @@
         <v>4204620.556579827</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -2136,18 +2120,16 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2173,15 +2155,11 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,15 +2188,11 @@
         <v>5286677.884954352</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2247,15 +2221,11 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,15 +2254,11 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,15 +2287,11 @@
         <v>5350719.237624411</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2324,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2399,11 +2357,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2390,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2423,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2456,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2547,11 +2489,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2522,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2555,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2588,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2621,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2654,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +2687,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +2720,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2843,11 +2753,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +2786,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2917,11 +2819,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2954,11 +2852,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2991,11 +2885,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +2918,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +2951,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +2984,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +3017,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +3050,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,16 +3079,14 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
       <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3244,7 +3112,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3310,7 +3178,7 @@
         <v>11630462.37413949</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3508,7 +3376,7 @@
         <v>12816795.5124281</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3541,7 +3409,7 @@
         <v>12784467.83046446</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3574,7 +3442,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3607,7 +3475,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3640,7 +3508,7 @@
         <v>12878315.09906446</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3805,7 +3673,7 @@
         <v>10741802.27451242</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3838,7 +3706,7 @@
         <v>10164527.07621242</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3871,7 +3739,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3937,7 +3805,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3970,7 +3838,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4003,7 +3871,7 @@
         <v>9874744.315655844</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4036,7 +3904,7 @@
         <v>10142681.96960794</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4069,7 +3937,7 @@
         <v>10142681.96960794</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4102,7 +3970,7 @@
         <v>11469848.85820794</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4135,7 +4003,7 @@
         <v>11114391.53190794</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4168,7 +4036,7 @@
         <v>10717330.77322699</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4201,7 +4069,7 @@
         <v>10717330.77322699</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4234,7 +4102,7 @@
         <v>10280735.68892699</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4267,7 +4135,7 @@
         <v>10331614.82332699</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4300,7 +4168,7 @@
         <v>9425533.512126986</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4333,7 +4201,7 @@
         <v>9425533.512126986</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4366,7 +4234,7 @@
         <v>9683838.842926987</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4399,7 +4267,7 @@
         <v>9551049.306826986</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4432,7 +4300,7 @@
         <v>9551049.306826986</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4465,7 +4333,7 @@
         <v>9610678.492626986</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4498,7 +4366,7 @@
         <v>9470618.985326985</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4531,7 +4399,7 @@
         <v>9470618.985326985</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4564,7 +4432,7 @@
         <v>9554090.026126985</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4729,7 +4597,7 @@
         <v>9957599.212126985</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4828,7 +4696,7 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4861,7 +4729,7 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4927,7 +4795,7 @@
         <v>9608268.039126985</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5455,7 +5323,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5488,7 +5356,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5521,7 +5389,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5554,7 +5422,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5587,7 +5455,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5620,7 +5488,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5653,7 +5521,7 @@
         <v>11196531.50000272</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5686,7 +5554,7 @@
         <v>10884946.17490272</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5719,7 +5587,7 @@
         <v>11023393.43020272</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5752,7 +5620,7 @@
         <v>11058490.98235329</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5785,7 +5653,7 @@
         <v>10522660.3853533</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5818,7 +5686,7 @@
         <v>10578007.20345329</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5851,7 +5719,7 @@
         <v>10226206.87485329</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5884,7 +5752,7 @@
         <v>10353084.54485329</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5917,7 +5785,7 @@
         <v>10257556.61105329</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5950,7 +5818,7 @@
         <v>10201647.08605329</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5983,7 +5851,7 @@
         <v>9960892.626853293</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6016,7 +5884,7 @@
         <v>9104287.681553293</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6049,7 +5917,7 @@
         <v>9104287.681553293</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6082,7 +5950,7 @@
         <v>9793192.429853292</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6115,7 +5983,7 @@
         <v>9674868.851753293</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6148,7 +6016,7 @@
         <v>9788406.603753293</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6181,7 +6049,7 @@
         <v>9985350.543153293</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6214,7 +6082,7 @@
         <v>9985350.543153293</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6247,7 +6115,7 @@
         <v>10337454.82851704</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6280,7 +6148,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6313,7 +6181,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6346,7 +6214,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6379,7 +6247,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6412,7 +6280,7 @@
         <v>10443957.79761703</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6445,7 +6313,7 @@
         <v>10443957.79761703</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6478,7 +6346,7 @@
         <v>10800695.95491703</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6511,7 +6379,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6544,7 +6412,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6577,7 +6445,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6610,7 +6478,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6643,7 +6511,7 @@
         <v>10784352.60141703</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6676,7 +6544,7 @@
         <v>10784352.60141703</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6709,7 +6577,7 @@
         <v>10889274.61131703</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6742,7 +6610,7 @@
         <v>10889274.61131703</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6775,7 +6643,7 @@
         <v>10889193.15761703</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6808,7 +6676,7 @@
         <v>10918652.6057775</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6874,7 +6742,7 @@
         <v>11269602.51911703</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6907,7 +6775,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6940,7 +6808,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6973,7 +6841,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7006,7 +6874,7 @@
         <v>11264582.51911703</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7039,7 +6907,7 @@
         <v>11638586.82621703</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7072,7 +6940,7 @@
         <v>12229002.52001704</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7105,7 +6973,7 @@
         <v>11916259.00441704</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7138,7 +7006,7 @@
         <v>11595461.21971704</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7171,7 +7039,7 @@
         <v>11533249.94331704</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7204,7 +7072,7 @@
         <v>11533279.94331704</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7237,7 +7105,7 @@
         <v>11095567.07101703</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7270,7 +7138,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7303,7 +7171,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7336,7 +7204,7 @@
         <v>11836691.45371703</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7369,7 +7237,7 @@
         <v>12076116.83971703</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7402,7 +7270,7 @@
         <v>11712534.98491703</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7435,7 +7303,7 @@
         <v>11265741.32041703</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7468,7 +7336,7 @@
         <v>11354676.78121703</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7501,7 +7369,7 @@
         <v>11368197.20121703</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7534,7 +7402,7 @@
         <v>11231484.67851703</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7567,7 +7435,7 @@
         <v>11028349.18181703</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7600,7 +7468,7 @@
         <v>11028349.18181703</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7633,7 +7501,7 @@
         <v>10947354.58791703</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7666,7 +7534,7 @@
         <v>11132427.94971703</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7699,7 +7567,7 @@
         <v>11130872.80581703</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7732,7 +7600,7 @@
         <v>11137220.27721703</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7765,7 +7633,7 @@
         <v>11103066.31721703</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7798,7 +7666,7 @@
         <v>11103088.31721703</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7831,7 +7699,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7864,7 +7732,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7897,7 +7765,7 @@
         <v>10997712.83051703</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7930,7 +7798,7 @@
         <v>11137763.48151703</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7963,7 +7831,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7996,7 +7864,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8029,7 +7897,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8062,7 +7930,7 @@
         <v>10964843.55961703</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8095,7 +7963,7 @@
         <v>10889834.69331703</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8128,7 +7996,7 @@
         <v>10640566.36091703</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8194,7 +8062,7 @@
         <v>10357245.25689582</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8227,7 +8095,7 @@
         <v>10488021.56467461</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8260,7 +8128,7 @@
         <v>10488021.56467461</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8293,7 +8161,7 @@
         <v>10167789.16797461</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8326,7 +8194,7 @@
         <v>10167789.16797461</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8359,7 +8227,7 @@
         <v>10132654.58827461</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8392,7 +8260,7 @@
         <v>10132654.58827461</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8425,7 +8293,7 @@
         <v>9904062.249474607</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8458,7 +8326,7 @@
         <v>9904062.249474607</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8491,7 +8359,7 @@
         <v>10238491.83997461</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8524,7 +8392,7 @@
         <v>10126092.41497461</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8557,7 +8425,7 @@
         <v>10126092.41497461</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8590,7 +8458,7 @@
         <v>10355990.11827461</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8623,7 +8491,7 @@
         <v>10495846.68407461</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8656,7 +8524,7 @@
         <v>10475355.08717461</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8689,7 +8557,7 @@
         <v>10475355.08717461</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8722,7 +8590,7 @@
         <v>10475365.08717461</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8755,7 +8623,7 @@
         <v>10106123.41287461</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8788,7 +8656,7 @@
         <v>10106123.41287461</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8821,7 +8689,7 @@
         <v>9692261.498974608</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8854,7 +8722,7 @@
         <v>9962707.416074608</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8887,7 +8755,7 @@
         <v>9821299.612574607</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8920,7 +8788,7 @@
         <v>9821299.612574607</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8986,7 +8854,7 @@
         <v>10003907.91707461</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9019,7 +8887,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9052,7 +8920,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9085,7 +8953,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9118,7 +8986,7 @@
         <v>9951675.830374608</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9448,7 +9316,7 @@
         <v>9978907.789437186</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -29193,6 +29061,6 @@
       <c r="M863" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest RNT.xlsx
+++ b/BackTest/2019-10-29 BackTest RNT.xlsx
@@ -640,9 +640,11 @@
         <v>1865173.551996849</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,9 +679,11 @@
         <v>2020108.683996849</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +718,11 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,9 +757,11 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -825,9 +833,11 @@
         <v>2782860.669279827</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -2120,16 +2130,18 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2155,11 +2167,15 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2204,15 @@
         <v>5286677.884954352</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2241,15 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2278,15 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2287,11 +2315,15 @@
         <v>5350719.237624411</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2324,7 +2356,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2357,7 +2393,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2390,7 +2430,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2423,7 +2467,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2456,7 +2504,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2489,7 +2541,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2522,7 +2578,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2555,7 +2615,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2588,7 +2652,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2621,7 +2689,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2654,7 +2726,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2687,7 +2763,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2720,7 +2800,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2837,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2786,7 +2874,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2815,14 +2907,16 @@
         <v>12228317.15693949</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2848,7 +2942,7 @@
         <v>12114760.49143949</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2881,7 +2975,7 @@
         <v>12433616.86293949</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2914,7 +3008,7 @@
         <v>12095852.48453949</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2947,7 +3041,7 @@
         <v>11661951.51993949</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2980,7 +3074,7 @@
         <v>12026740.74823949</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3013,7 +3107,7 @@
         <v>12573377.32653949</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3046,7 +3140,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3079,7 +3173,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3112,7 +3206,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3145,7 +3239,7 @@
         <v>12077217.21743949</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3178,7 +3272,7 @@
         <v>11630462.37413949</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3211,7 +3305,7 @@
         <v>12143129.28933949</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3244,7 +3338,7 @@
         <v>12457286.62989174</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3277,7 +3371,7 @@
         <v>12366909.22649174</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3310,7 +3404,7 @@
         <v>12780147.1889281</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3343,7 +3437,7 @@
         <v>12714679.4791281</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3376,7 +3470,7 @@
         <v>12816795.5124281</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3409,7 +3503,7 @@
         <v>12784467.83046446</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3442,7 +3536,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3475,7 +3569,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3508,7 +3602,7 @@
         <v>12878315.09906446</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3541,7 +3635,7 @@
         <v>12694388.43546446</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3574,7 +3668,7 @@
         <v>12016222.16396446</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3607,7 +3701,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3640,7 +3734,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3673,7 +3767,7 @@
         <v>10741802.27451242</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3706,7 +3800,7 @@
         <v>10164527.07621242</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -5356,7 +5450,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5389,7 +5483,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5422,7 +5516,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5455,7 +5549,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5488,7 +5582,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5521,7 +5615,7 @@
         <v>11196531.50000272</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5686,7 +5780,7 @@
         <v>10578007.20345329</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5785,7 +5879,7 @@
         <v>10257556.61105329</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
